--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC59CAF-4237-4809-98ED-99E4535F1520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3F3B33-7463-4984-8309-4AAA1B1519E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="924" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -40,15 +40,9 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Сумма, руб</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -61,12 +55,6 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -185,6 +173,18 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Штраф руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,31 +525,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="5"/>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
@@ -807,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
@@ -933,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
@@ -975,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
@@ -1017,7 +1017,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
@@ -1101,7 +1101,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
@@ -1143,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="5"/>
@@ -1185,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="5"/>
@@ -1227,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="5"/>
@@ -1269,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="5"/>
@@ -1311,7 +1311,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
@@ -1353,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
@@ -1395,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
@@ -1437,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
@@ -1479,7 +1479,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1521,7 +1521,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1563,7 +1563,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1605,7 +1605,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1647,7 +1647,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
@@ -1689,7 +1689,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -1731,7 +1731,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -1773,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -1815,7 +1815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
@@ -1857,7 +1857,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
@@ -1899,7 +1899,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
@@ -1941,7 +1941,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
@@ -1983,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
@@ -2025,7 +2025,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
@@ -2072,7 +2072,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40" s="12">
         <f>SUM(K3:K38)</f>
@@ -2084,7 +2084,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2096,7 +2096,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2108,7 +2108,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3F3B33-7463-4984-8309-4AAA1B1519E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB4013F-672B-401E-9D83-9F636018B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3312" yWindow="924" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,28 +163,28 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Общая сумма графы “Итого”</t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Штраф руб.</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма графы "Итого", руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -207,14 +207,23 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,34 +252,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,1634 +501,1636 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="4">
         <v>29</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D34" si="0">(29)*1.1</f>
         <v>31.900000000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E38" si="1">C3*D3</f>
         <v>2233</v>
       </c>
-      <c r="F3" s="6">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="9">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="9">
         <v>44805</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H38" si="2">IF(G3&lt;=F3,0,A3-$A$11)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J38" si="3">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <f t="shared" ref="K3:K38" si="4">E3+J3</f>
         <v>2233</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>2217.0500000000002</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F38" si="6">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="9">
         <v>44806</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <f t="shared" si="4"/>
         <v>2217.0500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>2201.1000000000004</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="9">
         <v>44807</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <f t="shared" si="4"/>
         <v>2201.1000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>2185.15</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="9">
         <v>44808</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>2185.15</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>2169.2000000000003</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="9">
         <v>44809</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <f t="shared" si="4"/>
         <v>2169.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>2153.25</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="9">
         <v>44810</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="5">
         <f t="shared" si="4"/>
         <v>2153.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>2137.3000000000002</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="9">
         <v>44811</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <f t="shared" si="4"/>
         <v>2137.3000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>2121.3500000000004</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="9">
         <v>44812</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <f t="shared" si="4"/>
         <v>2121.3500000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>2105.4</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="F11" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="9">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="5">
         <f t="shared" si="4"/>
         <v>2105.4</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>2089.4500000000003</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="9">
         <v>44814</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="4"/>
         <v>2099.4500000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>2073.5</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="9">
         <v>44815</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="5">
         <f t="shared" si="4"/>
         <v>2093.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>2057.5500000000002</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="9">
         <v>44816</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="4">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="5">
         <f t="shared" si="4"/>
         <v>2087.5500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>2041.6000000000001</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="9">
         <v>44817</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="4">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="5">
         <f t="shared" si="4"/>
         <v>2081.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>2025.65</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="9">
         <v>44818</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
         <v>2075.65</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>2009.7</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="9">
         <v>44819</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>2069.6999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>1993.7500000000002</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="9">
         <v>44820</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <f t="shared" si="4"/>
         <v>2063.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>1977.8000000000002</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="9">
         <v>44821</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I19" s="4">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
         <v>2057.8000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>1961.8500000000001</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="9">
         <v>44822</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="5">
         <f t="shared" si="4"/>
         <v>2051.8500000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>1945.9</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="9">
         <v>44823</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>2045.9</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>1929.95</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="9">
         <v>44824</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I22" s="4">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>2039.95</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>1914.0000000000002</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="9">
         <v>44825</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I23" s="4">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
         <v>2034.0000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>1898.0500000000002</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="9">
         <v>44826</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="4">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="5">
         <f t="shared" si="4"/>
         <v>2028.0500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>1882.1000000000001</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="9">
         <v>44827</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="I25" s="4">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>2022.1000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>1866.15</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="9">
         <v>44828</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="4">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>2016.15</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>1850.2</v>
       </c>
-      <c r="F27" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="9">
         <v>44829</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="4">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="5">
         <f t="shared" si="4"/>
         <v>2010.2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>1834.2500000000002</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="9">
         <v>44830</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="5">
         <f t="shared" si="4"/>
         <v>2004.2500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>1818.3000000000002</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="9">
         <v>44831</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="5">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="4">
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="5">
         <f t="shared" si="4"/>
         <v>1998.3000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>1802.3500000000001</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="9">
         <v>44832</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I30" s="4">
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="5">
         <f t="shared" si="4"/>
         <v>1992.3500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>1786.4</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="F31" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="9">
         <v>44833</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="4">
+        <v>10</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="5">
         <f t="shared" si="4"/>
         <v>1986.4</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>1770.45</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="9">
         <v>44834</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I32" s="4">
+        <v>10</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="5">
         <f t="shared" si="4"/>
         <v>1980.45</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>1754.5000000000002</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F33" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="9">
         <v>44835</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I33" s="4">
+        <v>10</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="5">
         <f t="shared" si="4"/>
         <v>1974.5000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="5">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>1738.5500000000002</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="9">
         <v>44836</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="I34" s="4">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="5">
         <f t="shared" si="4"/>
         <v>1968.5500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="5">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <f t="shared" ref="D35:D38" si="7">((29)*1.1)/2</f>
         <v>15.950000000000001</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>861.30000000000007</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="F35" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="9">
         <v>44837</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="5">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="I35" s="4">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="5">
         <f t="shared" si="4"/>
         <v>1101.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="5">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <f t="shared" si="7"/>
         <v>15.950000000000001</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>853.32500000000005</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="9">
         <v>44838</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="I36" s="4">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="5">
         <f t="shared" si="4"/>
         <v>1103.325</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <f t="shared" si="7"/>
         <v>15.950000000000001</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>845.35</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="F37" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="9">
         <v>44839</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="5">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="I37" s="4">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="5">
         <f t="shared" si="4"/>
         <v>1105.3499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="5">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <f t="shared" si="7"/>
         <v>15.950000000000001</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>837.375</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="9">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="9">
         <v>44840</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="I38" s="4">
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="5">
         <f t="shared" si="4"/>
         <v>1107.375</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="12">
+      <c r="A40" s="1"/>
+      <c r="B40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
         <v>70722.150000000009</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>2233</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="1000" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="F1000" s="11"/>
+      <c r="F1000" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB4013F-672B-401E-9D83-9F636018B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE32884-2048-4216-8641-E3B7371803C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3312" yWindow="924" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,19 +172,19 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>общая сумма графы "Итого", руб.</t>
+  </si>
+  <si>
+    <t>средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>45</v>
@@ -2084,7 +2084,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2096,7 +2096,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2108,7 +2108,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2120,7 +2120,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE32884-2048-4216-8641-E3B7371803C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9921BFA5-80FC-4959-81A8-A6AABEB3FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3312" yWindow="924" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,16 +175,16 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
-    <t>средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>максимальная сумма к оплате, руб.</t>
+    <t>общая сумма графы "Итого"</t>
+  </si>
+  <si>
+    <t>средняя площадь</t>
+  </si>
+  <si>
+    <t>максимальный срок просрочки</t>
+  </si>
+  <si>
+    <t>максимальная сумма к оплате</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9921BFA5-80FC-4959-81A8-A6AABEB3FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C4B7A3-5DAE-4E3C-8C2A-21D96C63809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="924" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -510,6 +510,7 @@
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" customWidth="1"/>
     <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
@@ -606,6 +607,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -635,6 +637,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="5">
@@ -648,6 +651,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
+        <f t="shared" ref="A5:A38" si="7">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -677,6 +681,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="5">
@@ -690,6 +695,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -719,6 +725,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
@@ -732,6 +739,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -761,6 +769,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
@@ -774,6 +783,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -803,6 +813,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
@@ -816,6 +827,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -845,6 +857,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
@@ -858,6 +871,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -887,6 +901,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
@@ -900,6 +915,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -929,6 +945,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -942,6 +959,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -971,6 +989,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
@@ -984,6 +1003,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1013,6 +1033,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
@@ -1026,6 +1047,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1055,6 +1077,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
@@ -1068,6 +1091,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1097,6 +1121,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
@@ -1110,6 +1135,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1139,6 +1165,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
@@ -1152,6 +1179,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1181,6 +1209,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
@@ -1194,6 +1223,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1223,6 +1253,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
@@ -1236,6 +1267,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1265,6 +1297,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
@@ -1278,6 +1311,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1307,6 +1341,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
@@ -1320,6 +1355,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1349,6 +1385,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
@@ -1362,6 +1399,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1391,6 +1429,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
@@ -1404,6 +1443,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -1433,6 +1473,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
@@ -1446,6 +1487,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1475,6 +1517,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
@@ -1488,6 +1531,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -1517,6 +1561,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
@@ -1530,6 +1575,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1559,6 +1605,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
@@ -1572,6 +1619,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -1601,6 +1649,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
@@ -1614,6 +1663,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -1643,6 +1693,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
@@ -1656,6 +1707,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -1685,6 +1737,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
@@ -1698,6 +1751,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1727,6 +1781,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
@@ -1740,6 +1795,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -1769,6 +1825,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
@@ -1782,6 +1839,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -1811,6 +1869,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
@@ -1824,6 +1883,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -1853,6 +1913,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
@@ -1866,6 +1927,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -1895,6 +1957,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
@@ -1908,6 +1971,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -1918,7 +1982,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" ref="D35:D38" si="7">((29)*1.1)/2</f>
+        <f t="shared" ref="D35:D38" si="9">((29)*1.1)/2</f>
         <v>15.950000000000001</v>
       </c>
       <c r="E35" s="5">
@@ -1937,6 +2001,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
@@ -1950,6 +2015,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -1960,7 +2026,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E36" s="5">
@@ -1979,6 +2045,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
@@ -1992,6 +2059,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -2002,7 +2070,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E37" s="5">
@@ -2021,6 +2089,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
@@ -2034,6 +2103,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -2044,7 +2114,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E38" s="5">
@@ -2063,6 +2133,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C4B7A3-5DAE-4E3C-8C2A-21D96C63809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{607A5146-E206-4885-8AF5-C2FDB7DEF61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="1272" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,24 +37,12 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -175,16 +163,28 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>общая сумма графы "Итого"</t>
-  </si>
-  <si>
-    <t>средняя площадь</t>
-  </si>
-  <si>
-    <t>максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>максимальная сумма к оплате</t>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Срок оплаты, день</t>
+  </si>
+  <si>
+    <t>Дата оплаты, день</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -510,9 +510,10 @@
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -535,34 +536,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -570,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -611,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
@@ -655,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="5"/>
@@ -699,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="5"/>
@@ -743,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="5"/>
@@ -787,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="5"/>
@@ -831,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="5"/>
@@ -875,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="5"/>
@@ -919,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="5"/>
@@ -963,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="5"/>
@@ -1007,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="5"/>
@@ -1051,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="5"/>
@@ -1095,7 +1096,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="5"/>
@@ -1139,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="5"/>
@@ -1183,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="5"/>
@@ -1227,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="5"/>
@@ -1271,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="5"/>
@@ -1315,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="5"/>
@@ -1359,7 +1360,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="5"/>
@@ -1403,7 +1404,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="5"/>
@@ -1447,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="5"/>
@@ -1491,7 +1492,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="5"/>
@@ -1535,7 +1536,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="5"/>
@@ -1579,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="5"/>
@@ -1623,7 +1624,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="5"/>
@@ -1667,7 +1668,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="5"/>
@@ -1711,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="5"/>
@@ -1755,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="5"/>
@@ -1799,7 +1800,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="5"/>
@@ -1843,7 +1844,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="5"/>
@@ -1887,7 +1888,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="5"/>
@@ -1931,7 +1932,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="5"/>
@@ -1975,7 +1976,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="5"/>
@@ -2019,7 +2020,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="5"/>
@@ -2063,7 +2064,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="5"/>
@@ -2107,7 +2108,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="5"/>

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{607A5146-E206-4885-8AF5-C2FDB7DEF61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B443D08F-089E-4B38-BE49-09BB74F0FF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1272" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4008" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -266,9 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -567,7 +564,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -584,13 +581,13 @@
         <f t="shared" ref="E3:E38" si="1">C3*D3</f>
         <v>2233</v>
       </c>
-      <c r="F3" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="8">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="8">
         <v>44805</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f t="shared" ref="H3:H38" si="2">IF(G3&lt;=F3,0,A3-$A$11)</f>
         <v>0</v>
       </c>
@@ -607,7 +604,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -626,11 +623,11 @@
         <f t="shared" si="1"/>
         <v>2217.0500000000002</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F38" si="6">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>44806</v>
       </c>
       <c r="H4" s="5">
@@ -651,7 +648,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A38" si="7">A4+1</f>
         <v>3</v>
       </c>
@@ -670,11 +667,11 @@
         <f t="shared" si="1"/>
         <v>2201.1000000000004</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="8">
         <v>44807</v>
       </c>
       <c r="H5" s="5">
@@ -695,7 +692,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -714,11 +711,11 @@
         <f t="shared" si="1"/>
         <v>2185.15</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="8">
         <v>44808</v>
       </c>
       <c r="H6" s="5">
@@ -739,7 +736,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -758,11 +755,11 @@
         <f t="shared" si="1"/>
         <v>2169.2000000000003</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="8">
         <v>44809</v>
       </c>
       <c r="H7" s="5">
@@ -783,7 +780,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -802,11 +799,11 @@
         <f t="shared" si="1"/>
         <v>2153.25</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="8">
         <v>44810</v>
       </c>
       <c r="H8" s="5">
@@ -827,7 +824,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -846,11 +843,11 @@
         <f t="shared" si="1"/>
         <v>2137.3000000000002</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="8">
         <v>44811</v>
       </c>
       <c r="H9" s="5">
@@ -871,7 +868,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -890,11 +887,11 @@
         <f t="shared" si="1"/>
         <v>2121.3500000000004</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="8">
         <v>44812</v>
       </c>
       <c r="H10" s="5">
@@ -915,7 +912,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
@@ -934,11 +931,11 @@
         <f t="shared" si="1"/>
         <v>2105.4</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="8">
         <v>44813</v>
       </c>
       <c r="H11" s="5">
@@ -959,7 +956,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
@@ -978,11 +975,11 @@
         <f t="shared" si="1"/>
         <v>2089.4500000000003</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="8">
         <v>44814</v>
       </c>
       <c r="H12" s="5">
@@ -1003,7 +1000,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
@@ -1022,11 +1019,11 @@
         <f t="shared" si="1"/>
         <v>2073.5</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="8">
         <v>44815</v>
       </c>
       <c r="H13" s="5">
@@ -1047,7 +1044,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
@@ -1066,11 +1063,11 @@
         <f t="shared" si="1"/>
         <v>2057.5500000000002</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="8">
         <v>44816</v>
       </c>
       <c r="H14" s="5">
@@ -1091,7 +1088,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
@@ -1110,11 +1107,11 @@
         <f t="shared" si="1"/>
         <v>2041.6000000000001</v>
       </c>
-      <c r="F15" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="8">
         <v>44817</v>
       </c>
       <c r="H15" s="5">
@@ -1135,7 +1132,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
@@ -1154,11 +1151,11 @@
         <f t="shared" si="1"/>
         <v>2025.65</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="8">
         <v>44818</v>
       </c>
       <c r="H16" s="5">
@@ -1179,7 +1176,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
@@ -1198,11 +1195,11 @@
         <f t="shared" si="1"/>
         <v>2009.7</v>
       </c>
-      <c r="F17" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="8">
         <v>44819</v>
       </c>
       <c r="H17" s="5">
@@ -1223,7 +1220,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
@@ -1242,11 +1239,11 @@
         <f t="shared" si="1"/>
         <v>1993.7500000000002</v>
       </c>
-      <c r="F18" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="8">
         <v>44820</v>
       </c>
       <c r="H18" s="5">
@@ -1267,7 +1264,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
@@ -1286,11 +1283,11 @@
         <f t="shared" si="1"/>
         <v>1977.8000000000002</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="8">
         <v>44821</v>
       </c>
       <c r="H19" s="5">
@@ -1311,7 +1308,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
@@ -1330,11 +1327,11 @@
         <f t="shared" si="1"/>
         <v>1961.8500000000001</v>
       </c>
-      <c r="F20" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="8">
         <v>44822</v>
       </c>
       <c r="H20" s="5">
@@ -1355,7 +1352,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
@@ -1374,11 +1371,11 @@
         <f t="shared" si="1"/>
         <v>1945.9</v>
       </c>
-      <c r="F21" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="8">
         <v>44823</v>
       </c>
       <c r="H21" s="5">
@@ -1399,7 +1396,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
@@ -1418,11 +1415,11 @@
         <f t="shared" si="1"/>
         <v>1929.95</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="8">
         <v>44824</v>
       </c>
       <c r="H22" s="5">
@@ -1443,11 +1440,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5">
@@ -1462,11 +1459,11 @@
         <f t="shared" si="1"/>
         <v>1914.0000000000002</v>
       </c>
-      <c r="F23" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="8">
         <v>44825</v>
       </c>
       <c r="H23" s="5">
@@ -1487,11 +1484,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5">
@@ -1506,11 +1503,11 @@
         <f t="shared" si="1"/>
         <v>1898.0500000000002</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="8">
         <v>44826</v>
       </c>
       <c r="H24" s="5">
@@ -1531,11 +1528,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5">
@@ -1550,11 +1547,11 @@
         <f t="shared" si="1"/>
         <v>1882.1000000000001</v>
       </c>
-      <c r="F25" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="8">
         <v>44827</v>
       </c>
       <c r="H25" s="5">
@@ -1575,11 +1572,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5">
@@ -1594,11 +1591,11 @@
         <f t="shared" si="1"/>
         <v>1866.15</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="8">
         <v>44828</v>
       </c>
       <c r="H26" s="5">
@@ -1619,11 +1616,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5">
@@ -1638,11 +1635,11 @@
         <f t="shared" si="1"/>
         <v>1850.2</v>
       </c>
-      <c r="F27" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="F27" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="8">
         <v>44829</v>
       </c>
       <c r="H27" s="5">
@@ -1663,11 +1660,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5">
@@ -1682,11 +1679,11 @@
         <f t="shared" si="1"/>
         <v>1834.2500000000002</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="8">
         <v>44830</v>
       </c>
       <c r="H28" s="5">
@@ -1707,11 +1704,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5">
@@ -1726,11 +1723,11 @@
         <f t="shared" si="1"/>
         <v>1818.3000000000002</v>
       </c>
-      <c r="F29" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F29" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="8">
         <v>44831</v>
       </c>
       <c r="H29" s="5">
@@ -1751,11 +1748,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5">
@@ -1770,11 +1767,11 @@
         <f t="shared" si="1"/>
         <v>1802.3500000000001</v>
       </c>
-      <c r="F30" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="8">
         <v>44832</v>
       </c>
       <c r="H30" s="5">
@@ -1795,11 +1792,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5">
@@ -1814,11 +1811,11 @@
         <f t="shared" si="1"/>
         <v>1786.4</v>
       </c>
-      <c r="F31" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="8">
         <v>44833</v>
       </c>
       <c r="H31" s="5">
@@ -1839,11 +1836,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5">
@@ -1858,11 +1855,11 @@
         <f t="shared" si="1"/>
         <v>1770.45</v>
       </c>
-      <c r="F32" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="8">
         <v>44834</v>
       </c>
       <c r="H32" s="5">
@@ -1883,11 +1880,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5">
@@ -1902,11 +1899,11 @@
         <f t="shared" si="1"/>
         <v>1754.5000000000002</v>
       </c>
-      <c r="F33" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="8">
         <v>44835</v>
       </c>
       <c r="H33" s="5">
@@ -1927,11 +1924,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5">
@@ -1946,11 +1943,11 @@
         <f t="shared" si="1"/>
         <v>1738.5500000000002</v>
       </c>
-      <c r="F34" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="8">
         <v>44836</v>
       </c>
       <c r="H34" s="5">
@@ -1971,11 +1968,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5">
@@ -1990,11 +1987,11 @@
         <f t="shared" si="1"/>
         <v>861.30000000000007</v>
       </c>
-      <c r="F35" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="8">
         <v>44837</v>
       </c>
       <c r="H35" s="5">
@@ -2015,11 +2012,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5">
@@ -2034,11 +2031,11 @@
         <f t="shared" si="1"/>
         <v>853.32500000000005</v>
       </c>
-      <c r="F36" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="F36" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="8">
         <v>44838</v>
       </c>
       <c r="H36" s="5">
@@ -2059,11 +2056,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5">
@@ -2078,11 +2075,11 @@
         <f t="shared" si="1"/>
         <v>845.35</v>
       </c>
-      <c r="F37" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="F37" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="8">
         <v>44839</v>
       </c>
       <c r="H37" s="5">
@@ -2103,11 +2100,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5">
@@ -2122,11 +2119,11 @@
         <f t="shared" si="1"/>
         <v>837.375</v>
       </c>
-      <c r="F38" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="F38" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="8">
         <v>44840</v>
       </c>
       <c r="H38" s="5">
@@ -2155,7 +2152,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="3">
@@ -2167,7 +2164,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="1">
@@ -2179,7 +2176,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1">
@@ -2191,7 +2188,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1">

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B443D08F-089E-4B38-BE49-09BB74F0FF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B74087-BBDE-4751-BAEA-913696084A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4008" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -272,12 +272,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -498,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -616,7 +610,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="0"/>
+        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>31.900000000000002</v>
       </c>
       <c r="E4" s="5">
@@ -624,7 +618,7 @@
         <v>2217.0500000000002</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F38" si="6">F3</f>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="8">
@@ -635,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f>I3</f>
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="5">
@@ -649,7 +643,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A38" si="7">A4+1</f>
+        <f t="shared" ref="A5:A38" si="6">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -660,7 +654,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="7">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>31.900000000000002</v>
       </c>
       <c r="E5" s="5">
@@ -668,7 +662,7 @@
         <v>2201.1000000000004</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F5:F38" si="8">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="8">
@@ -679,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="5">
@@ -693,7 +687,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -704,7 +698,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E6" s="5">
@@ -712,7 +706,7 @@
         <v>2185.15</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G6" s="8">
@@ -723,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
@@ -737,7 +731,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -748,7 +742,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E7" s="5">
@@ -756,7 +750,7 @@
         <v>2169.2000000000003</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G7" s="8">
@@ -767,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
@@ -781,7 +775,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -792,7 +786,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E8" s="5">
@@ -800,7 +794,7 @@
         <v>2153.25</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G8" s="8">
@@ -811,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
@@ -825,7 +819,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -836,7 +830,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E9" s="5">
@@ -844,7 +838,7 @@
         <v>2137.3000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G9" s="8">
@@ -855,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
@@ -869,7 +863,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -880,7 +874,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E10" s="5">
@@ -888,7 +882,7 @@
         <v>2121.3500000000004</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G10" s="8">
@@ -899,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
@@ -913,7 +907,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -924,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E11" s="5">
@@ -932,7 +926,7 @@
         <v>2105.4</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G11" s="8">
@@ -943,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -957,7 +951,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -968,7 +962,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E12" s="5">
@@ -976,7 +970,7 @@
         <v>2089.4500000000003</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G12" s="8">
@@ -987,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
@@ -1001,7 +995,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1012,7 +1006,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E13" s="5">
@@ -1020,7 +1014,7 @@
         <v>2073.5</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G13" s="8">
@@ -1031,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
@@ -1045,7 +1039,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1056,7 +1050,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E14" s="5">
@@ -1064,7 +1058,7 @@
         <v>2057.5500000000002</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G14" s="8">
@@ -1075,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
@@ -1089,7 +1083,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1100,7 +1094,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E15" s="5">
@@ -1108,7 +1102,7 @@
         <v>2041.6000000000001</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G15" s="8">
@@ -1119,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
@@ -1133,7 +1127,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1144,7 +1138,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E16" s="5">
@@ -1152,7 +1146,7 @@
         <v>2025.65</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G16" s="8">
@@ -1163,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
@@ -1177,7 +1171,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1188,7 +1182,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E17" s="5">
@@ -1196,7 +1190,7 @@
         <v>2009.7</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G17" s="8">
@@ -1207,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
@@ -1221,7 +1215,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1232,7 +1226,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E18" s="5">
@@ -1240,7 +1234,7 @@
         <v>1993.7500000000002</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G18" s="8">
@@ -1251,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
@@ -1265,7 +1259,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1276,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E19" s="5">
@@ -1284,7 +1278,7 @@
         <v>1977.8000000000002</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G19" s="8">
@@ -1295,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
@@ -1309,7 +1303,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1320,7 +1314,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E20" s="5">
@@ -1328,7 +1322,7 @@
         <v>1961.8500000000001</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G20" s="8">
@@ -1339,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
@@ -1353,7 +1347,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1364,7 +1358,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E21" s="5">
@@ -1372,7 +1366,7 @@
         <v>1945.9</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G21" s="8">
@@ -1383,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
@@ -1397,7 +1391,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1408,7 +1402,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E22" s="5">
@@ -1416,7 +1410,7 @@
         <v>1929.95</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G22" s="8">
@@ -1427,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
@@ -1441,7 +1435,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1452,7 +1446,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E23" s="5">
@@ -1460,7 +1454,7 @@
         <v>1914.0000000000002</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G23" s="8">
@@ -1471,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
@@ -1485,7 +1479,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1496,7 +1490,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E24" s="5">
@@ -1504,7 +1498,7 @@
         <v>1898.0500000000002</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G24" s="8">
@@ -1515,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
@@ -1529,7 +1523,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1540,7 +1534,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E25" s="5">
@@ -1548,7 +1542,7 @@
         <v>1882.1000000000001</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G25" s="8">
@@ -1559,7 +1553,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
@@ -1573,7 +1567,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1584,7 +1578,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E26" s="5">
@@ -1592,7 +1586,7 @@
         <v>1866.15</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G26" s="8">
@@ -1603,7 +1597,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
@@ -1617,7 +1611,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1628,7 +1622,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E27" s="5">
@@ -1636,7 +1630,7 @@
         <v>1850.2</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G27" s="8">
@@ -1647,7 +1641,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
@@ -1661,7 +1655,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1672,7 +1666,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E28" s="5">
@@ -1680,7 +1674,7 @@
         <v>1834.2500000000002</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G28" s="8">
@@ -1691,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
@@ -1705,7 +1699,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -1716,7 +1710,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E29" s="5">
@@ -1724,7 +1718,7 @@
         <v>1818.3000000000002</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G29" s="8">
@@ -1735,7 +1729,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
@@ -1749,7 +1743,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -1760,7 +1754,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E30" s="5">
@@ -1768,7 +1762,7 @@
         <v>1802.3500000000001</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G30" s="8">
@@ -1779,7 +1773,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
@@ -1793,7 +1787,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -1804,7 +1798,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E31" s="5">
@@ -1812,7 +1806,7 @@
         <v>1786.4</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G31" s="8">
@@ -1823,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
@@ -1837,7 +1831,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1848,7 +1842,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E32" s="5">
@@ -1856,7 +1850,7 @@
         <v>1770.45</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G32" s="8">
@@ -1867,7 +1861,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
@@ -1881,7 +1875,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -1892,7 +1886,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E33" s="5">
@@ -1900,7 +1894,7 @@
         <v>1754.5000000000002</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G33" s="8">
@@ -1911,7 +1905,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
@@ -1925,7 +1919,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -1936,7 +1930,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E34" s="5">
@@ -1944,7 +1938,7 @@
         <v>1738.5500000000002</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G34" s="8">
@@ -1955,7 +1949,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
@@ -1969,7 +1963,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -1980,7 +1974,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" ref="D35:D38" si="9">((29)*1.1)/2</f>
+        <f t="shared" si="7"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E35" s="5">
@@ -1988,7 +1982,7 @@
         <v>861.30000000000007</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G35" s="8">
@@ -1999,7 +1993,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
@@ -2013,7 +2007,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -2024,7 +2018,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E36" s="5">
@@ -2032,7 +2026,7 @@
         <v>853.32500000000005</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G36" s="8">
@@ -2043,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
@@ -2057,7 +2051,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -2068,7 +2062,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E37" s="5">
@@ -2076,7 +2070,7 @@
         <v>845.35</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G37" s="8">
@@ -2087,7 +2081,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
@@ -2101,7 +2095,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2112,7 +2106,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E38" s="5">
@@ -2120,7 +2114,7 @@
         <v>837.375</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G38" s="8">
@@ -2131,7 +2125,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">
@@ -2152,7 +2146,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="3">
@@ -2164,7 +2158,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="1">
@@ -2176,7 +2170,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1">

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B74087-BBDE-4751-BAEA-913696084A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A3F02E-88E2-4FE9-94A2-DA186C5FB95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4008" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,12 +166,6 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Срок оплаты, день</t>
-  </si>
-  <si>
-    <t>Дата оплаты, день</t>
-  </si>
-  <si>
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -539,16 +539,16 @@
         <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>42</v>
@@ -568,7 +568,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D34" si="0">(29)*1.1</f>
+        <f t="shared" ref="D3" si="0">(29)*1.1</f>
         <v>31.900000000000002</v>
       </c>
       <c r="E3" s="5">
@@ -2147,7 +2147,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2159,7 +2159,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2171,7 +2171,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2183,7 +2183,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A3F02E-88E2-4FE9-94A2-DA186C5FB95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CCB0A5E-3662-4CC5-B9B1-29B716046FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -272,6 +271,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,14 +493,14 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" customWidth="1"/>
@@ -508,1632 +508,1667 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+      <c r="A1" s="3">
         <v>29</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3" si="0">(29)*1.1</f>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E38" si="1">C3*D3</f>
+      <c r="D3" s="4">
+        <f>IF(A3&lt;33,(29*1.1),(29*1.1)/2)</f>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>2233</v>
       </c>
-      <c r="F3" s="8">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="7">
         <v>44805</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H38" si="2">IF(G3&lt;=F3,0,A3-$A$11)</f>
+      <c r="H3" s="8">
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J38" si="3">H3*I3</f>
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K38" si="4">E3+J3</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>2233</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C38" si="3">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="5">
-        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D38" si="4">IF(A4&lt;33,(29*1.1),(29*1.1)/2)</f>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
         <v>2217.0500000000002</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="2"/>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:H38" si="5">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f>$I$3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" si="3"/>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="4"/>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
         <v>2217.0500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <f t="shared" ref="A5:A38" si="6">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
-        <f t="shared" si="5"/>
+      <c r="C5" s="4">
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D38" si="7">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
+      <c r="D5" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
         <v>2201.1000000000004</v>
       </c>
-      <c r="F5" s="8">
-        <f t="shared" ref="F5:F38" si="8">$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="2"/>
+      <c r="H5" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="3"/>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="4"/>
+      <c r="K5" s="4">
+        <f t="shared" si="2"/>
         <v>2201.1000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
-        <f t="shared" si="5"/>
+      <c r="C6" s="4">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
+      <c r="D6" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
         <v>2185.15</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="2"/>
+      <c r="H6" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="3"/>
+      <c r="I6" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="4"/>
+      <c r="K6" s="4">
+        <f t="shared" si="2"/>
         <v>2185.15</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
-        <f t="shared" si="5"/>
+      <c r="C7" s="4">
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="D7" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
+      <c r="D7" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
         <v>2169.2000000000003</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" si="2"/>
+      <c r="H7" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="3"/>
+      <c r="I7" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="4"/>
+      <c r="K7" s="4">
+        <f t="shared" si="2"/>
         <v>2169.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" si="5"/>
+      <c r="C8" s="4">
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
+      <c r="D8" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
         <v>2153.25</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" si="2"/>
+      <c r="H8" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="3"/>
+      <c r="I8" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="4"/>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
         <v>2153.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
-        <f t="shared" si="5"/>
+      <c r="C9" s="4">
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="D9" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
+      <c r="D9" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
         <v>2137.3000000000002</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" si="2"/>
+      <c r="H9" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="3"/>
+      <c r="I9" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="4"/>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
         <v>2137.3000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="5"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="3"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
+      <c r="D10" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
         <v>2121.3500000000004</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="5">
-        <f t="shared" si="2"/>
+      <c r="H10" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="3"/>
+      <c r="I10" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="4"/>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
         <v>2121.3500000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <f t="shared" si="5"/>
+      <c r="C11" s="4">
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="D11" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
+      <c r="D11" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
         <v>2105.4</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="8">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="2"/>
+      <c r="F11" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="3"/>
+      <c r="I11" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="4"/>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
         <v>2105.4</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
-        <f t="shared" si="5"/>
+      <c r="C12" s="4">
+        <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
+      <c r="D12" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
         <v>2089.4500000000003</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="5">
-        <f t="shared" si="2"/>
+      <c r="H12" s="8">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="4"/>
+      <c r="I12" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
         <v>2099.4500000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
-        <f t="shared" si="5"/>
+      <c r="C13" s="4">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="D13" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
+      <c r="D13" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
         <v>2073.5</v>
       </c>
-      <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="2"/>
+      <c r="H13" s="8">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="3"/>
+      <c r="I13" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="4"/>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
         <v>2093.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" si="5"/>
+      <c r="C14" s="4">
+        <f t="shared" si="3"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
+      <c r="D14" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
         <v>2057.5500000000002</v>
       </c>
-      <c r="F14" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="5">
-        <f t="shared" si="2"/>
+      <c r="H14" s="8">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="3"/>
+      <c r="I14" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="4"/>
+      <c r="K14" s="4">
+        <f t="shared" si="2"/>
         <v>2087.5500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" si="5"/>
+      <c r="C15" s="4">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
+      <c r="D15" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
         <v>2041.6000000000001</v>
       </c>
-      <c r="F15" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" si="2"/>
+      <c r="H15" s="8">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="3"/>
+      <c r="I15" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="4"/>
+      <c r="K15" s="4">
+        <f t="shared" si="2"/>
         <v>2081.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
-        <f t="shared" si="5"/>
+      <c r="C16" s="4">
+        <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
         <v>2025.65</v>
       </c>
-      <c r="F16" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="5">
-        <f t="shared" si="2"/>
+      <c r="H16" s="8">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="3"/>
+      <c r="I16" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K16" s="5">
-        <f t="shared" si="4"/>
+      <c r="K16" s="4">
+        <f t="shared" si="2"/>
         <v>2075.65</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="5"/>
+      <c r="C17" s="4">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
+      <c r="D17" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
         <v>2009.7</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="2"/>
+      <c r="H17" s="8">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="3"/>
+      <c r="I17" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="4"/>
+      <c r="K17" s="4">
+        <f t="shared" si="2"/>
         <v>2069.6999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5">
-        <f t="shared" si="5"/>
+      <c r="C18" s="4">
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="1"/>
+      <c r="D18" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
         <v>1993.7500000000002</v>
       </c>
-      <c r="F18" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="2"/>
+      <c r="H18" s="8">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="3"/>
+      <c r="I18" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="4"/>
+      <c r="K18" s="4">
+        <f t="shared" si="2"/>
         <v>2063.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
-        <f t="shared" si="5"/>
+      <c r="C19" s="4">
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="1"/>
+      <c r="D19" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
         <v>1977.8000000000002</v>
       </c>
-      <c r="F19" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" si="2"/>
+      <c r="H19" s="8">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I19" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="3"/>
+      <c r="I19" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="4"/>
+      <c r="K19" s="4">
+        <f t="shared" si="2"/>
         <v>2057.8000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
-        <f t="shared" si="5"/>
+      <c r="C20" s="4">
+        <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="1"/>
+      <c r="D20" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
         <v>1961.8500000000001</v>
       </c>
-      <c r="F20" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
+      <c r="H20" s="8">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="3"/>
+      <c r="I20" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K20" s="5">
-        <f t="shared" si="4"/>
+      <c r="K20" s="4">
+        <f t="shared" si="2"/>
         <v>2051.8500000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5">
-        <f t="shared" si="5"/>
+      <c r="C21" s="4">
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="1"/>
+      <c r="D21" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
         <v>1945.9</v>
       </c>
-      <c r="F21" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="3"/>
+      <c r="H21" s="8">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K21" s="5">
-        <f t="shared" si="4"/>
+      <c r="K21" s="4">
+        <f t="shared" si="2"/>
         <v>2045.9</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5">
-        <f t="shared" si="5"/>
+      <c r="C22" s="4">
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="1"/>
+      <c r="D22" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
         <v>1929.95</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="5">
-        <f t="shared" si="2"/>
+      <c r="H22" s="8">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="3"/>
+      <c r="I22" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="K22" s="5">
-        <f t="shared" si="4"/>
+      <c r="K22" s="4">
+        <f t="shared" si="2"/>
         <v>2039.95</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
-        <f t="shared" si="5"/>
+      <c r="C23" s="4">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="D23" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="1"/>
+      <c r="D23" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
         <v>1914.0000000000002</v>
       </c>
-      <c r="F23" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="5">
-        <f t="shared" si="2"/>
+      <c r="H23" s="8">
+        <f>IF(G23&lt;=F23,0,G23-F23)</f>
         <v>12</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="3"/>
+      <c r="I23" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K23" s="5">
-        <f t="shared" si="4"/>
+      <c r="K23" s="4">
+        <f t="shared" si="2"/>
         <v>2034.0000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5">
-        <f t="shared" si="5"/>
+      <c r="C24" s="4">
+        <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="1"/>
+      <c r="D24" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
         <v>1898.0500000000002</v>
       </c>
-      <c r="F24" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="5">
-        <f t="shared" si="2"/>
+      <c r="H24" s="8">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="3"/>
+      <c r="I24" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="K24" s="5">
-        <f t="shared" si="4"/>
+      <c r="K24" s="4">
+        <f t="shared" si="2"/>
         <v>2028.0500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
-        <f t="shared" si="5"/>
+      <c r="C25" s="4">
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="1"/>
+      <c r="D25" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
         <v>1882.1000000000001</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="5">
-        <f t="shared" si="2"/>
+      <c r="H25" s="8">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="3"/>
+      <c r="I25" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="K25" s="5">
-        <f t="shared" si="4"/>
+      <c r="K25" s="4">
+        <f t="shared" si="2"/>
         <v>2022.1000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" si="5"/>
+      <c r="C26" s="4">
+        <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="1"/>
+      <c r="D26" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
         <v>1866.15</v>
       </c>
-      <c r="F26" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" si="2"/>
+      <c r="H26" s="8">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="3"/>
+      <c r="I26" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K26" s="5">
-        <f t="shared" si="4"/>
+      <c r="K26" s="4">
+        <f t="shared" si="2"/>
         <v>2016.15</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5">
-        <f t="shared" si="5"/>
+      <c r="C27" s="4">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="1"/>
+      <c r="D27" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
         <v>1850.2</v>
       </c>
-      <c r="F27" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="5">
-        <f t="shared" si="2"/>
+      <c r="H27" s="8">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="3"/>
+      <c r="I27" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="K27" s="5">
-        <f t="shared" si="4"/>
+      <c r="K27" s="4">
+        <f t="shared" si="2"/>
         <v>2010.2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="5">
-        <f t="shared" si="5"/>
+      <c r="C28" s="4">
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="1"/>
+      <c r="D28" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
         <v>1834.2500000000002</v>
       </c>
-      <c r="F28" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="5">
-        <f t="shared" si="2"/>
+      <c r="H28" s="8">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="3"/>
+      <c r="I28" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="K28" s="5">
-        <f t="shared" si="4"/>
+      <c r="K28" s="4">
+        <f t="shared" si="2"/>
         <v>2004.2500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5">
-        <f t="shared" si="5"/>
+      <c r="C29" s="4">
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="1"/>
+      <c r="D29" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
         <v>1818.3000000000002</v>
       </c>
-      <c r="F29" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="5">
-        <f t="shared" si="2"/>
+      <c r="H29" s="8">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="I29" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="3"/>
+      <c r="I29" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="K29" s="5">
-        <f t="shared" si="4"/>
+      <c r="K29" s="4">
+        <f t="shared" si="2"/>
         <v>1998.3000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5">
-        <f t="shared" si="5"/>
+      <c r="C30" s="4">
+        <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="1"/>
+      <c r="D30" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
         <v>1802.3500000000001</v>
       </c>
-      <c r="F30" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="5">
-        <f t="shared" si="2"/>
+      <c r="H30" s="8">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="3"/>
+      <c r="I30" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="K30" s="5">
-        <f t="shared" si="4"/>
+      <c r="K30" s="4">
+        <f t="shared" si="2"/>
         <v>1992.3500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="5">
-        <f t="shared" si="5"/>
+      <c r="C31" s="4">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="1"/>
+      <c r="D31" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
         <v>1786.4</v>
       </c>
-      <c r="F31" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="5">
-        <f t="shared" si="2"/>
+      <c r="H31" s="8">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="3"/>
+      <c r="I31" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K31" s="5">
-        <f t="shared" si="4"/>
+      <c r="K31" s="4">
+        <f t="shared" si="2"/>
         <v>1986.4</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
-        <f t="shared" si="5"/>
+      <c r="C32" s="4">
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="1"/>
+      <c r="D32" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
         <v>1770.45</v>
       </c>
-      <c r="F32" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="5">
-        <f t="shared" si="2"/>
+      <c r="H32" s="8">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="3"/>
+      <c r="I32" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="K32" s="5">
-        <f t="shared" si="4"/>
+      <c r="K32" s="4">
+        <f t="shared" si="2"/>
         <v>1980.45</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5">
-        <f t="shared" si="5"/>
+      <c r="C33" s="4">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="D33" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" si="1"/>
+      <c r="D33" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
         <v>1754.5000000000002</v>
       </c>
-      <c r="F33" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="5">
-        <f t="shared" si="2"/>
+      <c r="H33" s="8">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="3"/>
+      <c r="I33" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" si="4"/>
+      <c r="K33" s="4">
+        <f t="shared" si="2"/>
         <v>1974.5000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="5">
-        <f t="shared" si="5"/>
+      <c r="C34" s="4">
+        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="5">
-        <f t="shared" si="7"/>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="1"/>
+      <c r="D34" s="4">
+        <f t="shared" si="4"/>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
         <v>1738.5500000000002</v>
       </c>
-      <c r="F34" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F34" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="5">
-        <f t="shared" si="2"/>
+      <c r="H34" s="8">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="3"/>
+      <c r="I34" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="K34" s="5">
-        <f t="shared" si="4"/>
+      <c r="K34" s="4">
+        <f t="shared" si="2"/>
         <v>1968.5500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="5">
-        <f t="shared" si="5"/>
+      <c r="C35" s="4">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="D35" s="5">
-        <f t="shared" si="7"/>
+      <c r="D35" s="4">
+        <f t="shared" si="4"/>
         <v>15.950000000000001</v>
       </c>
-      <c r="E35" s="5">
-        <f t="shared" si="1"/>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
         <v>861.30000000000007</v>
       </c>
-      <c r="F35" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="F35" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="5">
-        <f t="shared" si="2"/>
+      <c r="H35" s="8">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="5">
-        <f t="shared" si="3"/>
+      <c r="I35" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="K35" s="5">
-        <f t="shared" si="4"/>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
         <v>1101.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="5">
-        <f t="shared" si="5"/>
+      <c r="C36" s="4">
+        <f t="shared" si="3"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="5">
-        <f t="shared" si="7"/>
+      <c r="D36" s="4">
+        <f t="shared" si="4"/>
         <v>15.950000000000001</v>
       </c>
-      <c r="E36" s="5">
-        <f t="shared" si="1"/>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
         <v>853.32500000000005</v>
       </c>
-      <c r="F36" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="F36" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="5">
-        <f t="shared" si="2"/>
+      <c r="H36" s="8">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="I36" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" si="3"/>
+      <c r="I36" s="3">
+        <f>I35</f>
+        <v>10</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K36" s="5">
-        <f t="shared" si="4"/>
+      <c r="K36" s="4">
+        <f t="shared" si="2"/>
         <v>1103.325</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="5">
-        <f t="shared" si="5"/>
+      <c r="C37" s="4">
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="D37" s="5">
-        <f t="shared" si="7"/>
+      <c r="D37" s="4">
+        <f t="shared" si="4"/>
         <v>15.950000000000001</v>
       </c>
-      <c r="E37" s="5">
-        <f t="shared" si="1"/>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
         <v>845.35</v>
       </c>
-      <c r="F37" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="F37" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="5">
-        <f t="shared" si="2"/>
+      <c r="H37" s="8">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="5">
-        <f t="shared" si="3"/>
+      <c r="I37" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="K37" s="5">
-        <f t="shared" si="4"/>
+      <c r="K37" s="4">
+        <f t="shared" si="2"/>
         <v>1105.3499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="5">
-        <f t="shared" si="5"/>
+      <c r="C38" s="4">
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" si="7"/>
+      <c r="D38" s="4">
+        <f t="shared" si="4"/>
         <v>15.950000000000001</v>
       </c>
-      <c r="E38" s="5">
-        <f t="shared" si="1"/>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
         <v>837.375</v>
       </c>
-      <c r="F38" s="8">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="F38" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="5">
-        <f t="shared" si="2"/>
+      <c r="H38" s="8">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="3"/>
+      <c r="I38" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K38" s="5">
-        <f t="shared" si="4"/>
+      <c r="K38" s="4">
+        <f t="shared" si="2"/>
         <v>1107.375</v>
       </c>
     </row>
@@ -2146,19 +2181,19 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="3">
-        <f>SUM(K3:K38)</f>
-        <v>70722.150000000009</v>
+      <c r="C40" s="10">
+        <f>INT(SUM(K3:K38))</f>
+        <v>70722</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="1">
@@ -2170,7 +2205,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="1">
@@ -2182,7 +2217,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="1">

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CCB0A5E-3662-4CC5-B9B1-29B716046FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1559B388-11F7-4A9F-93D0-594AF91159BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -252,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -271,7 +272,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,8 +494,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -568,7 +570,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="4">
-        <f>IF(A3&lt;33,(29*1.1),(29*1.1)/2)</f>
+        <f>$A$1*1.1</f>
         <v>31.900000000000002</v>
       </c>
       <c r="E3" s="4">
@@ -592,7 +594,7 @@
         <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="10">
         <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>2233</v>
       </c>
@@ -610,7 +612,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D38" si="4">IF(A4&lt;33,(29*1.1),(29*1.1)/2)</f>
+        <f t="shared" ref="D4:D34" si="4">$A$1*1.1</f>
         <v>31.900000000000002</v>
       </c>
       <c r="E4" s="4">
@@ -637,7 +639,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="10">
         <f t="shared" si="2"/>
         <v>2217.0500000000002</v>
       </c>
@@ -682,7 +684,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="10">
         <f t="shared" si="2"/>
         <v>2201.1000000000004</v>
       </c>
@@ -727,7 +729,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="10">
         <f t="shared" si="2"/>
         <v>2185.15</v>
       </c>
@@ -772,7 +774,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="10">
         <f t="shared" si="2"/>
         <v>2169.2000000000003</v>
       </c>
@@ -817,7 +819,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="10">
         <f t="shared" si="2"/>
         <v>2153.25</v>
       </c>
@@ -862,7 +864,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="10">
         <f t="shared" si="2"/>
         <v>2137.3000000000002</v>
       </c>
@@ -907,7 +909,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="10">
         <f t="shared" si="2"/>
         <v>2121.3500000000004</v>
       </c>
@@ -952,7 +954,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="10">
         <f t="shared" si="2"/>
         <v>2105.4</v>
       </c>
@@ -997,7 +999,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="10">
         <f t="shared" si="2"/>
         <v>2099.4500000000003</v>
       </c>
@@ -1042,7 +1044,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="10">
         <f t="shared" si="2"/>
         <v>2093.5</v>
       </c>
@@ -1087,7 +1089,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="10">
         <f t="shared" si="2"/>
         <v>2087.5500000000002</v>
       </c>
@@ -1132,7 +1134,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="10">
         <f t="shared" si="2"/>
         <v>2081.6000000000004</v>
       </c>
@@ -1177,7 +1179,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="10">
         <f t="shared" si="2"/>
         <v>2075.65</v>
       </c>
@@ -1222,7 +1224,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="10">
         <f t="shared" si="2"/>
         <v>2069.6999999999998</v>
       </c>
@@ -1267,7 +1269,7 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="10">
         <f t="shared" si="2"/>
         <v>2063.75</v>
       </c>
@@ -1312,7 +1314,7 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="10">
         <f t="shared" si="2"/>
         <v>2057.8000000000002</v>
       </c>
@@ -1357,7 +1359,7 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="10">
         <f t="shared" si="2"/>
         <v>2051.8500000000004</v>
       </c>
@@ -1402,7 +1404,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="10">
         <f t="shared" si="2"/>
         <v>2045.9</v>
       </c>
@@ -1447,7 +1449,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="10">
         <f t="shared" si="2"/>
         <v>2039.95</v>
       </c>
@@ -1492,7 +1494,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="10">
         <f t="shared" si="2"/>
         <v>2034.0000000000002</v>
       </c>
@@ -1537,7 +1539,7 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="10">
         <f t="shared" si="2"/>
         <v>2028.0500000000002</v>
       </c>
@@ -1582,7 +1584,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="10">
         <f t="shared" si="2"/>
         <v>2022.1000000000001</v>
       </c>
@@ -1627,7 +1629,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="10">
         <f t="shared" si="2"/>
         <v>2016.15</v>
       </c>
@@ -1672,7 +1674,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="10">
         <f t="shared" si="2"/>
         <v>2010.2</v>
       </c>
@@ -1717,7 +1719,7 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="10">
         <f t="shared" si="2"/>
         <v>2004.2500000000002</v>
       </c>
@@ -1762,7 +1764,7 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="10">
         <f t="shared" si="2"/>
         <v>1998.3000000000002</v>
       </c>
@@ -1807,7 +1809,7 @@
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="10">
         <f t="shared" si="2"/>
         <v>1992.3500000000001</v>
       </c>
@@ -1852,7 +1854,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="10">
         <f t="shared" si="2"/>
         <v>1986.4</v>
       </c>
@@ -1897,7 +1899,7 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="10">
         <f t="shared" si="2"/>
         <v>1980.45</v>
       </c>
@@ -1942,7 +1944,7 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="10">
         <f t="shared" si="2"/>
         <v>1974.5000000000002</v>
       </c>
@@ -1987,7 +1989,7 @@
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="10">
         <f t="shared" si="2"/>
         <v>1968.5500000000002</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="4"/>
+        <f>($A$1*1.1)/2</f>
         <v>15.950000000000001</v>
       </c>
       <c r="E35" s="4">
@@ -2032,7 +2034,7 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="10">
         <f t="shared" si="2"/>
         <v>1101.3000000000002</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D36:D38" si="10">($A$1 * 1.1)/2</f>
         <v>15.950000000000001</v>
       </c>
       <c r="E36" s="4">
@@ -2077,7 +2079,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="10">
         <f t="shared" si="2"/>
         <v>1103.325</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E37" s="4">
@@ -2122,7 +2124,7 @@
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="10">
         <f t="shared" si="2"/>
         <v>1105.3499999999999</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>15.950000000000001</v>
       </c>
       <c r="E38" s="4">
@@ -2167,7 +2169,7 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="10">
         <f t="shared" si="2"/>
         <v>1107.375</v>
       </c>
@@ -2184,9 +2186,9 @@
       <c r="B40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="10">
-        <f>INT(SUM(K3:K38))</f>
-        <v>70722</v>
+      <c r="C40" s="11">
+        <f>(SUM(K3:K38))</f>
+        <v>70722.150000000009</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_29.xlsx
+++ b/LR3/table_1_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1559B388-11F7-4A9F-93D0-594AF91159BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B75E06-8CD1-4A91-88B7-520ED5F2959D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,8 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -273,7 +272,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -591,11 +590,11 @@
         <v>10</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="10">
-        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="1">E3+J3</f>
         <v>2233</v>
       </c>
     </row>
@@ -608,11 +607,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C38" si="3">C3-0.5</f>
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D34" si="4">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="2">$A$1*1.1</f>
         <v>31.900000000000002</v>
       </c>
       <c r="E4" s="4">
@@ -628,7 +627,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H38" si="5">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
@@ -636,28 +635,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J4:J38" si="4">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2217.0500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A38" si="6">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E5" s="4">
@@ -665,44 +664,44 @@
         <v>2201.1000000000004</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I5:I38" si="9">I4</f>
+        <f>I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2201.1000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E6" s="4">
@@ -710,44 +709,44 @@
         <v>2185.15</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F6:F38" si="8">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I6:I38" si="9">I5</f>
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2185.15</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E7" s="4">
@@ -755,15 +754,15 @@
         <v>2169.2000000000003</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
@@ -771,28 +770,28 @@
         <v>10</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2169.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E8" s="4">
@@ -800,15 +799,15 @@
         <v>2153.25</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="3">
@@ -816,28 +815,28 @@
         <v>10</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2153.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E9" s="4">
@@ -845,15 +844,15 @@
         <v>2137.3000000000002</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="3">
@@ -861,28 +860,28 @@
         <v>10</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2137.3000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E10" s="4">
@@ -890,15 +889,15 @@
         <v>2121.3500000000004</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="3">
@@ -906,28 +905,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2121.3500000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E11" s="4">
@@ -935,15 +934,15 @@
         <v>2105.4</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="3">
@@ -951,28 +950,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2105.4</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E12" s="4">
@@ -980,15 +979,15 @@
         <v>2089.4500000000003</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
@@ -996,28 +995,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2099.4500000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E13" s="4">
@@ -1025,15 +1024,15 @@
         <v>2073.5</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I13" s="3">
@@ -1041,28 +1040,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2093.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E14" s="4">
@@ -1070,15 +1069,15 @@
         <v>2057.5500000000002</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I14" s="3">
@@ -1086,28 +1085,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2087.5500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E15" s="4">
@@ -1115,15 +1114,15 @@
         <v>2041.6000000000001</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I15" s="3">
@@ -1131,28 +1130,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2081.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E16" s="4">
@@ -1160,15 +1159,15 @@
         <v>2025.65</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I16" s="3">
@@ -1176,28 +1175,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2075.65</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E17" s="4">
@@ -1205,15 +1204,15 @@
         <v>2009.7</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I17" s="3">
@@ -1221,28 +1220,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="K17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2069.6999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E18" s="4">
@@ -1250,15 +1249,15 @@
         <v>1993.7500000000002</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I18" s="3">
@@ -1266,28 +1265,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2063.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E19" s="4">
@@ -1295,15 +1294,15 @@
         <v>1977.8000000000002</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I19" s="3">
@@ -1311,28 +1310,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="K19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2057.8000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E20" s="4">
@@ -1340,15 +1339,15 @@
         <v>1961.8500000000001</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I20" s="3">
@@ -1356,28 +1355,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2051.8500000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E21" s="4">
@@ -1385,15 +1384,15 @@
         <v>1945.9</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I21" s="3">
@@ -1401,28 +1400,28 @@
         <v>10</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2045.9</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E22" s="4">
@@ -1430,15 +1429,15 @@
         <v>1929.95</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I22" s="3">
@@ -1446,28 +1445,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2039.95</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E23" s="4">
@@ -1475,11 +1474,11 @@
         <v>1914.0000000000002</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="8">
@@ -1491,28 +1490,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2034.0000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E24" s="4">
@@ -1520,15 +1519,15 @@
         <v>1898.0500000000002</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I24" s="3">
@@ -1536,28 +1535,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2028.0500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E25" s="4">
@@ -1565,15 +1564,15 @@
         <v>1882.1000000000001</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I25" s="3">
@@ -1581,28 +1580,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2022.1000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E26" s="4">
@@ -1610,15 +1609,15 @@
         <v>1866.15</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I26" s="3">
@@ -1626,28 +1625,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2016.15</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E27" s="4">
@@ -1655,15 +1654,15 @@
         <v>1850.2</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I27" s="3">
@@ -1671,28 +1670,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2010.2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E28" s="4">
@@ -1700,15 +1699,15 @@
         <v>1834.2500000000002</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I28" s="3">
@@ -1716,28 +1715,28 @@
         <v>10</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2004.2500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E29" s="4">
@@ -1745,15 +1744,15 @@
         <v>1818.3000000000002</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I29" s="3">
@@ -1761,28 +1760,28 @@
         <v>10</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1998.3000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E30" s="4">
@@ -1790,15 +1789,15 @@
         <v>1802.3500000000001</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I30" s="3">
@@ -1806,28 +1805,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1992.3500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E31" s="4">
@@ -1835,15 +1834,15 @@
         <v>1786.4</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I31" s="3">
@@ -1851,28 +1850,28 @@
         <v>10</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1986.4</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E32" s="4">
@@ -1880,15 +1879,15 @@
         <v>1770.45</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="I32" s="3">
@@ -1896,28 +1895,28 @@
         <v>10</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1980.45</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E33" s="4">
@@ -1925,15 +1924,15 @@
         <v>1754.5000000000002</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="I33" s="3">
@@ -1941,28 +1940,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1974.5000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>31.900000000000002</v>
       </c>
       <c r="E34" s="4">
@@ -1970,15 +1969,15 @@
         <v>1738.5500000000002</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I34" s="3">
@@ -1986,24 +1985,24 @@
         <v>10</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1968.5500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
@@ -2015,15 +2014,15 @@
         <v>861.30000000000007</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="I35" s="3">
@@ -2031,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1101.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="10">($A$1 * 1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>15.950000000000001</v>
       </c>
       <c r="E36" s="4">
@@ -2060,15 +2059,15 @@
         <v>853.32500000000005</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I36" s="3">
@@ -2076,24 +2075,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1103.325</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
@@ -2105,15 +2104,15 @@
         <v>845.35</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I37" s="3">
@@ -2121,24 +2120,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1105.3499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
@@ -2150,15 +2149,15 @@
         <v>837.375</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="I38" s="3">
@@ -2166,11 +2165,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1107.375</v>
       </c>
     </row>
@@ -2187,8 +2186,8 @@
         <v>45</v>
       </c>
       <c r="C40" s="11">
-        <f>(SUM(K3:K38))</f>
-        <v>70722.150000000009</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>70722</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
